--- a/ScriptMasterSheet.xlsx
+++ b/ScriptMasterSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2049D1F0-ECC2-4D0A-9B05-B286F0E2518A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100F1911-60C1-4F52-BB6C-88E641E616D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>testT4273</t>
+  </si>
+  <si>
+    <t>NonInvestigativeCaseDataSetup1</t>
   </si>
   <si>
     <t>testT4145_1</t>
@@ -536,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -782,7 +785,7 @@
     </row>
     <row r="22" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="8">
         <v>1</v>
@@ -869,13 +872,13 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="10">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -888,6 +891,17 @@
       </c>
       <c r="C31" s="10" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -898,6 +912,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1114,16 +1138,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1134,6 +1148,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1152,16 +1176,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/ScriptMasterSheet.xlsx
+++ b/ScriptMasterSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100F1911-60C1-4F52-BB6C-88E641E616D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D697F36-F048-4885-A4B5-0E4268AF2BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -101,6 +101,9 @@
     <t>testT4145</t>
   </si>
   <si>
+    <t>testT4145_1</t>
+  </si>
+  <si>
     <t>testFolioDataSetup1</t>
   </si>
   <si>
@@ -128,7 +131,10 @@
     <t>NonInvestigativeCaseDataSetup1</t>
   </si>
   <si>
-    <t>testT4145_1</t>
+    <t>testT4763</t>
+  </si>
+  <si>
+    <t>testT4275</t>
   </si>
 </sst>
 </file>
@@ -539,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -785,7 +791,7 @@
     </row>
     <row r="22" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8">
         <v>1</v>
@@ -796,7 +802,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
@@ -807,7 +813,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
@@ -818,7 +824,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="8">
         <v>1</v>
@@ -829,7 +835,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="8">
         <v>1</v>
@@ -840,7 +846,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="10">
         <v>1</v>
@@ -851,7 +857,7 @@
     </row>
     <row r="28" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="10">
         <v>1</v>
@@ -862,7 +868,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="10">
         <v>1</v>
@@ -873,7 +879,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="10">
         <v>1</v>
@@ -884,7 +890,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="10">
         <v>2</v>
@@ -895,12 +901,34 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10">
+        <v>1</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -912,16 +940,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1138,7 +1156,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1147,17 +1165,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1176,10 +1194,20 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ScriptMasterSheet.xlsx
+++ b/ScriptMasterSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D697F36-F048-4885-A4B5-0E4268AF2BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D290EB-B098-47E3-BB59-AAFBBBFF6594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -940,6 +940,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1156,7 +1166,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1165,17 +1175,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1194,20 +1204,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ScriptMasterSheet.xlsx
+++ b/ScriptMasterSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D290EB-B098-47E3-BB59-AAFBBBFF6594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6014D21-7F11-4D1C-926A-7F2F4453F005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>testT4763</t>
+  </si>
+  <si>
+    <t>testT4277</t>
+  </si>
+  <si>
+    <t>testT4215</t>
+  </si>
+  <si>
+    <t>testT4256</t>
   </si>
   <si>
     <t>testT4275</t>
@@ -545,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,6 +941,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="10">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="8">
+        <v>1</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -940,13 +982,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1167,20 +1208,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1205,9 +1245,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ScriptMasterSheet.xlsx
+++ b/ScriptMasterSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6014D21-7F11-4D1C-926A-7F2F4453F005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47734DC1-86A8-46E4-8BFC-83337307767C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+  <si>
+    <t>MILESTONE</t>
+  </si>
   <si>
     <t>TESTCASE</t>
   </si>
@@ -53,9 +56,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>testT4116_Negative</t>
-  </si>
-  <si>
     <t>testT4115</t>
   </si>
   <si>
@@ -68,89 +68,101 @@
     <t>testT2901</t>
   </si>
   <si>
-    <t>testT2901_1</t>
-  </si>
-  <si>
     <t>testT2922</t>
   </si>
   <si>
     <t>testT2928</t>
   </si>
   <si>
-    <t>testScreening</t>
-  </si>
-  <si>
-    <t>testFolio</t>
+    <t>testT2929</t>
+  </si>
+  <si>
+    <t>testT4748</t>
+  </si>
+  <si>
+    <t>testT4244</t>
+  </si>
+  <si>
+    <t>testT4250</t>
   </si>
   <si>
     <t>testT4239</t>
   </si>
   <si>
-    <t>testT4250</t>
-  </si>
-  <si>
-    <t>testT2929</t>
-  </si>
-  <si>
-    <t>testT4244</t>
-  </si>
-  <si>
-    <t>testPOM</t>
+    <t>dataSetup</t>
+  </si>
+  <si>
+    <t>testFolioDataSetup1</t>
+  </si>
+  <si>
+    <t>testFolioDataSetup2</t>
+  </si>
+  <si>
+    <t>testCaseDataSetup1</t>
+  </si>
+  <si>
+    <t>testCaseDataSetup2</t>
+  </si>
+  <si>
+    <t>nonInvestigativeCaseDataSetup1</t>
   </si>
   <si>
     <t>testT4145</t>
   </si>
   <si>
-    <t>testT4145_1</t>
-  </si>
-  <si>
-    <t>testFolioDataSetup1</t>
-  </si>
-  <si>
-    <t>testFolioDataSetup2</t>
-  </si>
-  <si>
-    <t>testFolioDataSetup3</t>
-  </si>
-  <si>
-    <t>testFolioDataSetup4</t>
-  </si>
-  <si>
     <t>testT4764</t>
   </si>
   <si>
-    <t>testT4748</t>
-  </si>
-  <si>
     <t>testT4148</t>
   </si>
   <si>
+    <t>testT4763</t>
+  </si>
+  <si>
+    <t>testT4215</t>
+  </si>
+  <si>
+    <t>testT4256</t>
+  </si>
+  <si>
     <t>testT4273</t>
   </si>
   <si>
-    <t>NonInvestigativeCaseDataSetup1</t>
-  </si>
-  <si>
-    <t>testT4763</t>
-  </si>
-  <si>
     <t>testT4277</t>
   </si>
   <si>
-    <t>testT4215</t>
-  </si>
-  <si>
-    <t>testT4256</t>
-  </si>
-  <si>
     <t>testT4275</t>
+  </si>
+  <si>
+    <t>testT4213</t>
+  </si>
+  <si>
+    <t>testT4274</t>
+  </si>
+  <si>
+    <t>testT4258</t>
+  </si>
+  <si>
+    <t>testT4240</t>
+  </si>
+  <si>
+    <t>caseChildLocationSetup</t>
+  </si>
+  <si>
+    <t>testT4249</t>
+  </si>
+  <si>
+    <t>testT4149</t>
+  </si>
+  <si>
+    <t>testT4275_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,48 +184,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -228,18 +231,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,443 +575,561 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
         <v>6</v>
       </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    <row r="28" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>19</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <v>8</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <v>8</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+      <c r="B34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="8" t="s">
+      <c r="B35" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8">
-        <v>1</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8">
-        <v>1</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="B36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <v>15</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8">
-        <v>1</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8">
-        <v>1</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="10">
-        <v>1</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="10">
-        <v>1</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="10">
-        <v>2</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="10">
-        <v>1</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="10">
-        <v>1</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="10">
-        <v>1</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8">
-        <v>1</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="8">
-        <v>1</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>4</v>
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="13">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="14">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1207,7 +1346,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -1217,15 +1356,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1244,7 +1384,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1252,4 +1392,18 @@
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/ScriptMasterSheet.xlsx
+++ b/ScriptMasterSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demakode\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47734DC1-86A8-46E4-8BFC-83337307767C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8352C8-83E9-4960-90AE-DBADFB5A0A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
   <si>
     <t>MILESTONE</t>
   </si>
@@ -155,7 +155,13 @@
     <t>testT4149</t>
   </si>
   <si>
+    <t>testT4245</t>
+  </si>
+  <si>
     <t>testT4275_1</t>
+  </si>
+  <si>
+    <t>testT4275_2</t>
   </si>
 </sst>
 </file>
@@ -575,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1001,7 +1007,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -1010,12 +1016,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
@@ -1026,10 +1032,10 @@
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="8">
         <v>1</v>
@@ -1043,7 +1049,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="8">
         <v>1</v>
@@ -1054,38 +1060,38 @@
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
+        <v>8</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
         <v>15</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B36" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
-        <v>20</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -1096,29 +1102,43 @@
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
+        <v>20</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
         <v>15</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="8">
-        <v>1</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="13">
+      <c r="B38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="13">
         <v>15</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="14">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C39" s="14">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1347,6 +1367,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -1354,15 +1383,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1385,6 +1405,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1394,14 +1422,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
